--- a/drug_inform.xlsx
+++ b/drug_inform.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Drug_Concept_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -341,18 +341,6 @@
   </si>
   <si>
     <t>yym</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>man</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>woman</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,1308 +753,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="71" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>1130863</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>1141018</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>1192710</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1197677</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>1110727</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1188052</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>1188114</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>928744</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>1129625</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>738818</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>777221</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>994341</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>1153013</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1159811</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1105889</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>719174</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>705178</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>914335</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>1116109</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" ht="33">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>924724</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>1101703</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>923672</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>1158632</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>953391</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>965748</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>1335606</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
         <v>710062</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>713109</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>798834</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>716968</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>778268</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>721724</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>722031</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>754270</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>705755</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>712757</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>959174</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>1139699</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3">
         <v>702685</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3">
         <v>730729</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3">
         <v>734275</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>766067</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="4">
         <v>781039</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>748010</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="4">
         <v>791967</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
         <v>724816</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>836715</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>704599</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>990678</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>798874</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>790253</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>723013</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>756349</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>731188</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3">
         <v>702865</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>757352</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="4">
         <v>720727</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>744740</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3">
         <v>745268</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>1384360</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="3">
         <v>1300978</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="4">
         <v>1594973</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3">
         <v>1597756</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="4">
         <v>1559684</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3">
         <v>908523</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3">
         <v>1102527</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
         <v>1178663</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3">
         <v>1136980</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3">
         <v>749910</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3">
         <v>795113</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="4">
         <v>778711</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="4">
         <v>780369</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3">
         <v>704943</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="4">
         <v>724394</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2084,9 +1388,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -2094,7 +1398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2102,7 +1406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>81</v>
       </c>

--- a/drug_inform.xlsx
+++ b/drug_inform.xlsx
@@ -15,317 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>Drug_Concept_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>brompheniramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>carbinoxamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chlorpheniramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clemastine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyproheptadine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dexbrompheniramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dexchlorpheniramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dimenhydrinate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diphenhydramine (oral)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>doxylamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hydroxyzine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meclizine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>promethazine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pyrilamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triprolidine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>benztropine (oral)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trihexyphenidyl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atropine (excludes ophthalmic)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>belladonna alkaloids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clidinium-chlordiazepoxide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>950792 and 990678</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dicyclomine </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>homatropine (excludes ophthalmic)</t>
-  </si>
-  <si>
-    <t>Hyoscyamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>methscopolamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>propantheline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scopolamine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>disopyramide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amitriptyline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amoxapine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clomipramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desipramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>imipramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nortriptyline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paroxetine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protriptyline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>trimipramine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amobarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>butabarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>butalbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mephobarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pentobarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phenobarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>secobarbital</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>alprazolam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>estazolam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lorazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>oxazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>temazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triazolam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chlordiazepoxide (alone or in combination with amitriptyline or clidinium)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clonazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>clorazepate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>diazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flurazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quazepam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meprobamate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eszopiclone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zaleplon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zolpidem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ergoloid mesylates (dehydrogenated ergot alkaloids)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isoxsuprine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>megestrol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chlorpropamide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>glimepiride</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>glyburide (also known as glibenclamide)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mineral oil (given orally)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meperidine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>indomethacin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ketorolac (includes parenteral)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>carisoprodol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chlorzoxazone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cyclobenzaprine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>metaxalone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>methocarbamol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orphenadrine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drug_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
@@ -342,13 +34,313 @@
   <si>
     <t>yym</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drug</t>
+  </si>
+  <si>
+    <t>Drug_Concept_ID</t>
+  </si>
+  <si>
+    <t>brompheniramine</t>
+  </si>
+  <si>
+    <t>carbinoxamine</t>
+  </si>
+  <si>
+    <t>chlorpheniramine</t>
+  </si>
+  <si>
+    <t>clemastine</t>
+  </si>
+  <si>
+    <t>cyproheptadine</t>
+  </si>
+  <si>
+    <t>dexbrompheniramine</t>
+  </si>
+  <si>
+    <t>dexchlorpheniramine</t>
+  </si>
+  <si>
+    <t>dimenhydrinate</t>
+  </si>
+  <si>
+    <t>42929512, 19020367, 19107656</t>
+  </si>
+  <si>
+    <t>diphenhydramine (oral)</t>
+  </si>
+  <si>
+    <t>doxylamine</t>
+  </si>
+  <si>
+    <t>hydroxyzine</t>
+  </si>
+  <si>
+    <t>40222663, 40222636, 42941267, 42919348</t>
+  </si>
+  <si>
+    <t>meclizine</t>
+  </si>
+  <si>
+    <t>promethazine</t>
+  </si>
+  <si>
+    <t>pyrilamine</t>
+  </si>
+  <si>
+    <t>triprolidine</t>
+  </si>
+  <si>
+    <t>40237822, 42918392</t>
+  </si>
+  <si>
+    <t>benztropine (oral)</t>
+  </si>
+  <si>
+    <t>42942239, 42942235</t>
+  </si>
+  <si>
+    <t>trihexyphenidyl</t>
+  </si>
+  <si>
+    <t>40174061, 42924876</t>
+  </si>
+  <si>
+    <t>atropine (excludes ophthalmic)</t>
+  </si>
+  <si>
+    <t>42920414, 42922535</t>
+  </si>
+  <si>
+    <t>belladonna alkaloids</t>
+  </si>
+  <si>
+    <t>clidinium-chlordiazepoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dicyclomine </t>
+  </si>
+  <si>
+    <t>Hyoscyamine</t>
+  </si>
+  <si>
+    <t>methscopolamine</t>
+  </si>
+  <si>
+    <t>propantheline</t>
+  </si>
+  <si>
+    <t>scopolamine</t>
+  </si>
+  <si>
+    <t>40236758, 44125151, 42922481</t>
+  </si>
+  <si>
+    <t>disopyramide</t>
+  </si>
+  <si>
+    <t>amitriptyline</t>
+  </si>
+  <si>
+    <t>40162717, 42931453, 42931445, 42931444, 42931443</t>
+  </si>
+  <si>
+    <t>amoxapine</t>
+  </si>
+  <si>
+    <t>clomipramine</t>
+  </si>
+  <si>
+    <t>40163065, 40163059, 42950316</t>
+  </si>
+  <si>
+    <t>desipramine</t>
+  </si>
+  <si>
+    <t>imipramine</t>
+  </si>
+  <si>
+    <t>nortriptyline</t>
+  </si>
+  <si>
+    <t>paroxetine</t>
+  </si>
+  <si>
+    <t>722158, 42953193, 42953204</t>
+  </si>
+  <si>
+    <t>protriptyline</t>
+  </si>
+  <si>
+    <t>trimipramine</t>
+  </si>
+  <si>
+    <t>amobarbital</t>
+  </si>
+  <si>
+    <t>butabarbital</t>
+  </si>
+  <si>
+    <t>butalbital</t>
+  </si>
+  <si>
+    <t>mephobarbital</t>
+  </si>
+  <si>
+    <t>pentobarbital</t>
+  </si>
+  <si>
+    <t>phenobarbital</t>
+  </si>
+  <si>
+    <t>42956846, 734488, 42922491</t>
+  </si>
+  <si>
+    <t>secobarbital</t>
+  </si>
+  <si>
+    <t>alprazolam</t>
+  </si>
+  <si>
+    <t>42931070, 781062, 42931037, 781041, 42931030, 42931048, 42931046, 42931060, 781040, 42931052</t>
+  </si>
+  <si>
+    <t>estazolam</t>
+  </si>
+  <si>
+    <t>lorazepam</t>
+  </si>
+  <si>
+    <t>19004541, 19033566, 35777390</t>
+  </si>
+  <si>
+    <t>oxazepam</t>
+  </si>
+  <si>
+    <t>temazepam</t>
+  </si>
+  <si>
+    <t>triazolam</t>
+  </si>
+  <si>
+    <t>42942932, 19039287</t>
+  </si>
+  <si>
+    <t>chlordiazepoxide (alone or in combination with amitriptyline or clidinium)</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>clorazepate</t>
+  </si>
+  <si>
+    <t>diazepam</t>
+  </si>
+  <si>
+    <t>19004471, 42941317, 42941310, 19018909, 42921964</t>
+  </si>
+  <si>
+    <t>flurazepam</t>
+  </si>
+  <si>
+    <t>quazepam</t>
+  </si>
+  <si>
+    <t>meprobamate</t>
+  </si>
+  <si>
+    <t>eszopiclone</t>
+  </si>
+  <si>
+    <t>zaleplon</t>
+  </si>
+  <si>
+    <t>zolpidem</t>
+  </si>
+  <si>
+    <t>42955940, 42955938, 43263814</t>
+  </si>
+  <si>
+    <t>ergoloid mesylates (dehydrogenated ergot alkaloids)</t>
+  </si>
+  <si>
+    <t>isoxsuprine</t>
+  </si>
+  <si>
+    <t>megestrol</t>
+  </si>
+  <si>
+    <t>40164972, 40164968, 42931278, 42921069, 42920260, 42920603</t>
+  </si>
+  <si>
+    <t>chlorpropamide</t>
+  </si>
+  <si>
+    <t>glimepiride</t>
+  </si>
+  <si>
+    <t>1597760, 1597757, 42953763, 42953823, 42953705</t>
+  </si>
+  <si>
+    <t>glyburide (also known as glibenclamide)</t>
+  </si>
+  <si>
+    <t>19001408, 42942945</t>
+  </si>
+  <si>
+    <t>mineral oil (given orally)</t>
+  </si>
+  <si>
+    <t>meperidine</t>
+  </si>
+  <si>
+    <t>40165020, 42922493, 42922930</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>1178665, 1178727</t>
+  </si>
+  <si>
+    <t>ketorolac (includes parenteral)</t>
+  </si>
+  <si>
+    <t>40164851, 19133853, 42953301, 42922470, 42923089</t>
+  </si>
+  <si>
+    <t>carisoprodol</t>
+  </si>
+  <si>
+    <t>chlorzoxazone</t>
+  </si>
+  <si>
+    <t>cyclobenzaprine</t>
+  </si>
+  <si>
+    <t>42949503, 42949496</t>
+  </si>
+  <si>
+    <t>metaxalone</t>
+  </si>
+  <si>
+    <t>methocarbamol</t>
+  </si>
+  <si>
+    <t>35605676, 704946</t>
+  </si>
+  <si>
+    <t>orphenadrine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +367,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF464646"/>
+      <name val="HelveticaNeue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -436,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,11 +451,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,623 +770,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1130863</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>42901955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
         <v>1141018</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5">
         <v>1192710</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
         <v>1197677</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1110727</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>40166704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4">
         <v>1188052</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5">
         <v>1188114</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>928744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
         <v>1129625</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
         <v>738818</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>777221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
         <v>994341</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
         <v>1153013</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
         <v>1159811</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1105889</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>719174</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>705178</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>914335</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1116109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="33">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
+        <v>42921794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>41098059</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4">
         <v>924724</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4">
         <v>1101703</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4">
         <v>923672</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4">
         <v>1158632</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3">
+        <v>36</v>
+      </c>
+      <c r="B26" s="4">
         <v>953391</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3">
-        <v>965748</v>
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4">
         <v>1335606</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3">
-        <v>710062</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3">
-        <v>713109</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="7">
+        <v>42931109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3">
-        <v>798834</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3">
+        <v>45</v>
+      </c>
+      <c r="B32" s="4">
         <v>716968</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3">
-        <v>778268</v>
+        <v>46</v>
+      </c>
+      <c r="B33" s="7">
+        <v>42940620</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3">
-        <v>721724</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="7">
+        <v>42957457</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3">
-        <v>722031</v>
+        <v>48</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4">
         <v>754270</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4">
         <v>705755</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3">
+        <v>52</v>
+      </c>
+      <c r="B38" s="4">
         <v>712757</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4">
         <v>959174</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4">
         <v>1139699</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3">
+        <v>55</v>
+      </c>
+      <c r="B41" s="4">
         <v>702685</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3">
-        <v>730729</v>
+        <v>56</v>
+      </c>
+      <c r="B42" s="7">
+        <v>42921977</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3">
-        <v>734275</v>
+        <v>57</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3">
+        <v>59</v>
+      </c>
+      <c r="B44" s="4">
         <v>766067</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="4">
-        <v>781039</v>
+        <v>60</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="3">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4">
         <v>748010</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="4">
-        <v>791967</v>
+        <v>63</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3">
+        <v>65</v>
+      </c>
+      <c r="B48" s="4">
         <v>724816</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3">
+        <v>66</v>
+      </c>
+      <c r="B49" s="4">
         <v>836715</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3">
-        <v>704599</v>
+        <v>67</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3">
+        <v>69</v>
+      </c>
+      <c r="B51" s="4">
         <v>990678</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3">
-        <v>798874</v>
+        <v>70</v>
+      </c>
+      <c r="B52" s="7">
+        <v>19011608</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3">
+        <v>71</v>
+      </c>
+      <c r="B53" s="4">
         <v>790253</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3">
-        <v>723013</v>
+        <v>72</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3">
+        <v>74</v>
+      </c>
+      <c r="B55" s="4">
         <v>756349</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3">
+        <v>75</v>
+      </c>
+      <c r="B56" s="4">
         <v>731188</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="3">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4">
         <v>702865</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" s="3">
+        <v>77</v>
+      </c>
+      <c r="B58" s="4">
         <v>757352</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="4">
+        <v>78</v>
+      </c>
+      <c r="B59" s="5">
         <v>720727</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3">
-        <v>744740</v>
+        <v>79</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="3">
-        <v>745268</v>
+        <v>81</v>
+      </c>
+      <c r="B61" s="7">
+        <v>745372</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" s="3">
+        <v>82</v>
+      </c>
+      <c r="B62" s="4">
         <v>1384360</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="3">
-        <v>1300978</v>
+        <v>83</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="4">
+        <v>85</v>
+      </c>
+      <c r="B64" s="5">
         <v>1594973</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1597756</v>
+        <v>86</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" s="4">
-        <v>1559684</v>
+        <v>88</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="3">
+        <v>90</v>
+      </c>
+      <c r="B67" s="4">
         <v>908523</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="3">
-        <v>1102527</v>
+        <v>91</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="3">
-        <v>1178663</v>
+        <v>93</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1136980</v>
+        <v>95</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="3">
+        <v>97</v>
+      </c>
+      <c r="B71" s="4">
         <v>749910</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="3">
+        <v>98</v>
+      </c>
+      <c r="B72" s="4">
         <v>795113</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="4">
-        <v>778711</v>
+        <v>99</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="4">
+        <v>101</v>
+      </c>
+      <c r="B74" s="5">
         <v>780369</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" s="3">
-        <v>704943</v>
+        <v>102</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" s="4">
+        <v>104</v>
+      </c>
+      <c r="B76" s="5">
         <v>724394</v>
       </c>
     </row>
@@ -1392,15 +1410,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1408,7 +1426,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>45</v>

--- a/drug_inform.xlsx
+++ b/drug_inform.xlsx
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
-    <t>homatropine (excludes ophthalmic)</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,9 +66,6 @@
     <t>42929512, 19020367, 19107656</t>
   </si>
   <si>
-    <t>diphenhydramine (oral)</t>
-  </si>
-  <si>
     <t>doxylamine</t>
   </si>
   <si>
@@ -96,244 +90,260 @@
     <t>40237822, 42918392</t>
   </si>
   <si>
-    <t>benztropine (oral)</t>
-  </si>
-  <si>
     <t>42942239, 42942235</t>
   </si>
   <si>
+    <t>40174061, 42924876</t>
+  </si>
+  <si>
+    <t>42920414, 42922535</t>
+  </si>
+  <si>
+    <t>belladonna alkaloids</t>
+  </si>
+  <si>
+    <t>clidinium-chlordiazepoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dicyclomine </t>
+  </si>
+  <si>
+    <t>Hyoscyamine</t>
+  </si>
+  <si>
+    <t>methscopolamine</t>
+  </si>
+  <si>
+    <t>propantheline</t>
+  </si>
+  <si>
+    <t>scopolamine</t>
+  </si>
+  <si>
+    <t>40236758, 44125151, 42922481</t>
+  </si>
+  <si>
+    <t>disopyramide</t>
+  </si>
+  <si>
+    <t>amitriptyline</t>
+  </si>
+  <si>
+    <t>40162717, 42931453, 42931445, 42931444, 42931443</t>
+  </si>
+  <si>
+    <t>amoxapine</t>
+  </si>
+  <si>
+    <t>clomipramine</t>
+  </si>
+  <si>
+    <t>40163065, 40163059, 42950316</t>
+  </si>
+  <si>
+    <t>desipramine</t>
+  </si>
+  <si>
+    <t>imipramine</t>
+  </si>
+  <si>
+    <t>nortriptyline</t>
+  </si>
+  <si>
+    <t>paroxetine</t>
+  </si>
+  <si>
+    <t>722158, 42953193, 42953204</t>
+  </si>
+  <si>
+    <t>protriptyline</t>
+  </si>
+  <si>
+    <t>trimipramine</t>
+  </si>
+  <si>
+    <t>amobarbital</t>
+  </si>
+  <si>
+    <t>butabarbital</t>
+  </si>
+  <si>
+    <t>butalbital</t>
+  </si>
+  <si>
+    <t>mephobarbital</t>
+  </si>
+  <si>
+    <t>pentobarbital</t>
+  </si>
+  <si>
+    <t>phenobarbital</t>
+  </si>
+  <si>
+    <t>42956846, 734488, 42922491</t>
+  </si>
+  <si>
+    <t>secobarbital</t>
+  </si>
+  <si>
+    <t>alprazolam</t>
+  </si>
+  <si>
+    <t>42931070, 781062, 42931037, 781041, 42931030, 42931048, 42931046, 42931060, 781040, 42931052</t>
+  </si>
+  <si>
+    <t>estazolam</t>
+  </si>
+  <si>
+    <t>lorazepam</t>
+  </si>
+  <si>
+    <t>19004541, 19033566, 35777390</t>
+  </si>
+  <si>
+    <t>oxazepam</t>
+  </si>
+  <si>
+    <t>temazepam</t>
+  </si>
+  <si>
+    <t>triazolam</t>
+  </si>
+  <si>
+    <t>42942932, 19039287</t>
+  </si>
+  <si>
+    <t>clonazepam</t>
+  </si>
+  <si>
+    <t>clorazepate</t>
+  </si>
+  <si>
+    <t>diazepam</t>
+  </si>
+  <si>
+    <t>19004471, 42941317, 42941310, 19018909, 42921964</t>
+  </si>
+  <si>
+    <t>flurazepam</t>
+  </si>
+  <si>
+    <t>quazepam</t>
+  </si>
+  <si>
+    <t>meprobamate</t>
+  </si>
+  <si>
+    <t>eszopiclone</t>
+  </si>
+  <si>
+    <t>zaleplon</t>
+  </si>
+  <si>
+    <t>zolpidem</t>
+  </si>
+  <si>
+    <t>42955940, 42955938, 43263814</t>
+  </si>
+  <si>
+    <t>isoxsuprine</t>
+  </si>
+  <si>
+    <t>megestrol</t>
+  </si>
+  <si>
+    <t>40164972, 40164968, 42931278, 42921069, 42920260, 42920603</t>
+  </si>
+  <si>
+    <t>chlorpropamide</t>
+  </si>
+  <si>
+    <t>glimepiride</t>
+  </si>
+  <si>
+    <t>1597760, 1597757, 42953763, 42953823, 42953705</t>
+  </si>
+  <si>
+    <t>19001408, 42942945</t>
+  </si>
+  <si>
+    <t>meperidine</t>
+  </si>
+  <si>
+    <t>40165020, 42922493, 42922930</t>
+  </si>
+  <si>
+    <t>indomethacin</t>
+  </si>
+  <si>
+    <t>1178665, 1178727</t>
+  </si>
+  <si>
+    <t>40164851, 19133853, 42953301, 42922470, 42923089</t>
+  </si>
+  <si>
+    <t>carisoprodol</t>
+  </si>
+  <si>
+    <t>chlorzoxazone</t>
+  </si>
+  <si>
+    <t>cyclobenzaprine</t>
+  </si>
+  <si>
+    <t>42949503, 42949496</t>
+  </si>
+  <si>
+    <t>metaxalone</t>
+  </si>
+  <si>
+    <t>methocarbamol</t>
+  </si>
+  <si>
+    <t>35605676, 704946</t>
+  </si>
+  <si>
+    <t>orphenadrine</t>
+  </si>
+  <si>
+    <t>atropine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>homatropine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ergoloid mesylates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chlordiazepoxide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glyburide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mineral oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ketorolac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benztropine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>diphenhydramine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>trihexyphenidyl</t>
-  </si>
-  <si>
-    <t>40174061, 42924876</t>
-  </si>
-  <si>
-    <t>atropine (excludes ophthalmic)</t>
-  </si>
-  <si>
-    <t>42920414, 42922535</t>
-  </si>
-  <si>
-    <t>belladonna alkaloids</t>
-  </si>
-  <si>
-    <t>clidinium-chlordiazepoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dicyclomine </t>
-  </si>
-  <si>
-    <t>Hyoscyamine</t>
-  </si>
-  <si>
-    <t>methscopolamine</t>
-  </si>
-  <si>
-    <t>propantheline</t>
-  </si>
-  <si>
-    <t>scopolamine</t>
-  </si>
-  <si>
-    <t>40236758, 44125151, 42922481</t>
-  </si>
-  <si>
-    <t>disopyramide</t>
-  </si>
-  <si>
-    <t>amitriptyline</t>
-  </si>
-  <si>
-    <t>40162717, 42931453, 42931445, 42931444, 42931443</t>
-  </si>
-  <si>
-    <t>amoxapine</t>
-  </si>
-  <si>
-    <t>clomipramine</t>
-  </si>
-  <si>
-    <t>40163065, 40163059, 42950316</t>
-  </si>
-  <si>
-    <t>desipramine</t>
-  </si>
-  <si>
-    <t>imipramine</t>
-  </si>
-  <si>
-    <t>nortriptyline</t>
-  </si>
-  <si>
-    <t>paroxetine</t>
-  </si>
-  <si>
-    <t>722158, 42953193, 42953204</t>
-  </si>
-  <si>
-    <t>protriptyline</t>
-  </si>
-  <si>
-    <t>trimipramine</t>
-  </si>
-  <si>
-    <t>amobarbital</t>
-  </si>
-  <si>
-    <t>butabarbital</t>
-  </si>
-  <si>
-    <t>butalbital</t>
-  </si>
-  <si>
-    <t>mephobarbital</t>
-  </si>
-  <si>
-    <t>pentobarbital</t>
-  </si>
-  <si>
-    <t>phenobarbital</t>
-  </si>
-  <si>
-    <t>42956846, 734488, 42922491</t>
-  </si>
-  <si>
-    <t>secobarbital</t>
-  </si>
-  <si>
-    <t>alprazolam</t>
-  </si>
-  <si>
-    <t>42931070, 781062, 42931037, 781041, 42931030, 42931048, 42931046, 42931060, 781040, 42931052</t>
-  </si>
-  <si>
-    <t>estazolam</t>
-  </si>
-  <si>
-    <t>lorazepam</t>
-  </si>
-  <si>
-    <t>19004541, 19033566, 35777390</t>
-  </si>
-  <si>
-    <t>oxazepam</t>
-  </si>
-  <si>
-    <t>temazepam</t>
-  </si>
-  <si>
-    <t>triazolam</t>
-  </si>
-  <si>
-    <t>42942932, 19039287</t>
-  </si>
-  <si>
-    <t>chlordiazepoxide (alone or in combination with amitriptyline or clidinium)</t>
-  </si>
-  <si>
-    <t>clonazepam</t>
-  </si>
-  <si>
-    <t>clorazepate</t>
-  </si>
-  <si>
-    <t>diazepam</t>
-  </si>
-  <si>
-    <t>19004471, 42941317, 42941310, 19018909, 42921964</t>
-  </si>
-  <si>
-    <t>flurazepam</t>
-  </si>
-  <si>
-    <t>quazepam</t>
-  </si>
-  <si>
-    <t>meprobamate</t>
-  </si>
-  <si>
-    <t>eszopiclone</t>
-  </si>
-  <si>
-    <t>zaleplon</t>
-  </si>
-  <si>
-    <t>zolpidem</t>
-  </si>
-  <si>
-    <t>42955940, 42955938, 43263814</t>
-  </si>
-  <si>
-    <t>ergoloid mesylates (dehydrogenated ergot alkaloids)</t>
-  </si>
-  <si>
-    <t>isoxsuprine</t>
-  </si>
-  <si>
-    <t>megestrol</t>
-  </si>
-  <si>
-    <t>40164972, 40164968, 42931278, 42921069, 42920260, 42920603</t>
-  </si>
-  <si>
-    <t>chlorpropamide</t>
-  </si>
-  <si>
-    <t>glimepiride</t>
-  </si>
-  <si>
-    <t>1597760, 1597757, 42953763, 42953823, 42953705</t>
-  </si>
-  <si>
-    <t>glyburide (also known as glibenclamide)</t>
-  </si>
-  <si>
-    <t>19001408, 42942945</t>
-  </si>
-  <si>
-    <t>mineral oil (given orally)</t>
-  </si>
-  <si>
-    <t>meperidine</t>
-  </si>
-  <si>
-    <t>40165020, 42922493, 42922930</t>
-  </si>
-  <si>
-    <t>indomethacin</t>
-  </si>
-  <si>
-    <t>1178665, 1178727</t>
-  </si>
-  <si>
-    <t>ketorolac (includes parenteral)</t>
-  </si>
-  <si>
-    <t>40164851, 19133853, 42953301, 42922470, 42923089</t>
-  </si>
-  <si>
-    <t>carisoprodol</t>
-  </si>
-  <si>
-    <t>chlorzoxazone</t>
-  </si>
-  <si>
-    <t>cyclobenzaprine</t>
-  </si>
-  <si>
-    <t>42949503, 42949496</t>
-  </si>
-  <si>
-    <t>metaxalone</t>
-  </si>
-  <si>
-    <t>methocarbamol</t>
-  </si>
-  <si>
-    <t>35605676, 704946</t>
-  </si>
-  <si>
-    <t>orphenadrine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,9 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -782,612 +789,611 @@
     <col min="2" max="2" width="92.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5">
+        <v>42901955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
-        <v>42901955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3">
+        <v>1141018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
-        <v>1141018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>1192710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>1192710</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>1197677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
-        <v>1197677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="6">
+        <v>40166704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7">
-        <v>40166704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>1188052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <v>1188052</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>1188114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
-        <v>1188114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1129625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="3">
+        <v>738818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4">
-        <v>1129625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4">
-        <v>738818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="3">
+        <v>994341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B14" s="4">
+        <v>1153013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4">
-        <v>994341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="3">
+        <v>1159811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5">
-        <v>1153013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1159811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>102</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>104</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="7">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6">
         <v>42921794</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
         <v>41098059</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="4">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
         <v>924724</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="4">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3">
         <v>1101703</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3">
         <v>923672</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3">
         <v>1158632</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="4">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
         <v>953391</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
         <v>1335606</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="7">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6">
         <v>42931109</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="4">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3">
         <v>716968</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="7">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6">
         <v>42940620</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="7">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6">
         <v>42957457</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3">
         <v>754270</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="4">
+        <v>46</v>
+      </c>
+      <c r="B37" s="3">
         <v>705755</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="4">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3">
         <v>712757</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="4">
+        <v>48</v>
+      </c>
+      <c r="B39" s="3">
         <v>959174</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="4">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3">
         <v>1139699</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="4">
+        <v>50</v>
+      </c>
+      <c r="B41" s="3">
         <v>702685</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="7">
+        <v>51</v>
+      </c>
+      <c r="B42" s="6">
         <v>42921977</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="4">
+        <v>54</v>
+      </c>
+      <c r="B44" s="3">
         <v>766067</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="4">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3">
         <v>748010</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="4">
+        <v>60</v>
+      </c>
+      <c r="B48" s="3">
         <v>724816</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="4">
+        <v>61</v>
+      </c>
+      <c r="B49" s="3">
         <v>836715</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" s="4">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3">
         <v>990678</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B52" s="7">
+        <v>64</v>
+      </c>
+      <c r="B52" s="6">
         <v>19011608</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="4">
+        <v>65</v>
+      </c>
+      <c r="B53" s="3">
         <v>790253</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="4">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3">
         <v>756349</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="4">
+        <v>69</v>
+      </c>
+      <c r="B56" s="3">
         <v>731188</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="4">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3">
         <v>702865</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="4">
+        <v>71</v>
+      </c>
+      <c r="B58" s="3">
         <v>757352</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="5">
+        <v>72</v>
+      </c>
+      <c r="B59" s="4">
         <v>720727</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="7">
+        <v>97</v>
+      </c>
+      <c r="B61" s="6">
         <v>745372</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="4">
+        <v>75</v>
+      </c>
+      <c r="B62" s="3">
         <v>1384360</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="5">
+        <v>78</v>
+      </c>
+      <c r="B64" s="4">
         <v>1594973</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B67" s="4">
+        <v>100</v>
+      </c>
+      <c r="B67" s="3">
         <v>908523</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="4">
+        <v>87</v>
+      </c>
+      <c r="B71" s="3">
         <v>749910</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="4">
+        <v>88</v>
+      </c>
+      <c r="B72" s="3">
         <v>795113</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="5">
+        <v>91</v>
+      </c>
+      <c r="B74" s="4">
         <v>780369</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="5">
+        <v>94</v>
+      </c>
+      <c r="B76" s="4">
         <v>724394</v>
       </c>
     </row>
@@ -1410,15 +1416,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1426,7 +1432,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>45</v>
